--- a/Financials/Yearly/SHCAY_YR_FIN.xlsx
+++ b/Financials/Yearly/SHCAY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E03C5C4-422E-4AD5-828C-3BDCBB104910}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SHCAY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,33 +686,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -704,88 +739,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21529900</v>
+        <v>21942500</v>
       </c>
       <c r="E8" s="3">
-        <v>18189200</v>
+        <v>18537800</v>
       </c>
       <c r="F8" s="3">
-        <v>21834300</v>
+        <v>22252800</v>
       </c>
       <c r="G8" s="3">
-        <v>24714100</v>
+        <v>25187800</v>
       </c>
       <c r="H8" s="3">
-        <v>25964100</v>
+        <v>26461800</v>
       </c>
       <c r="I8" s="3">
-        <v>21985100</v>
+        <v>22406400</v>
       </c>
       <c r="J8" s="3">
-        <v>21783400</v>
+        <v>22200900</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17944100</v>
+        <v>18288000</v>
       </c>
       <c r="E9" s="3">
-        <v>14784400</v>
+        <v>15067700</v>
       </c>
       <c r="F9" s="3">
-        <v>19764800</v>
+        <v>20143600</v>
       </c>
       <c r="G9" s="3">
-        <v>21268000</v>
+        <v>21675700</v>
       </c>
       <c r="H9" s="3">
-        <v>21255600</v>
+        <v>21662900</v>
       </c>
       <c r="I9" s="3">
-        <v>19673700</v>
+        <v>20050700</v>
       </c>
       <c r="J9" s="3">
-        <v>36257800</v>
+        <v>36952700</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3585800</v>
+        <v>3654500</v>
       </c>
       <c r="E10" s="3">
-        <v>3404800</v>
+        <v>3470000</v>
       </c>
       <c r="F10" s="3">
-        <v>2069500</v>
+        <v>2109100</v>
       </c>
       <c r="G10" s="3">
-        <v>3446100</v>
+        <v>3512100</v>
       </c>
       <c r="H10" s="3">
-        <v>4708600</v>
+        <v>4798800</v>
       </c>
       <c r="I10" s="3">
-        <v>2311400</v>
+        <v>2355700</v>
       </c>
       <c r="J10" s="3">
-        <v>-14474400</v>
+        <v>-14751800</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,34 +833,34 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>201400</v>
+        <v>205300</v>
       </c>
       <c r="E12" s="3">
-        <v>218700</v>
+        <v>222900</v>
       </c>
       <c r="F12" s="3">
-        <v>267200</v>
+        <v>272300</v>
       </c>
       <c r="G12" s="3">
-        <v>325600</v>
+        <v>331800</v>
       </c>
       <c r="H12" s="3">
-        <v>295300</v>
+        <v>301000</v>
       </c>
       <c r="I12" s="3">
-        <v>288300</v>
+        <v>293900</v>
       </c>
       <c r="J12" s="3">
-        <v>634700</v>
+        <v>646900</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,34 +887,34 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="E14" s="3">
-        <v>246400</v>
+        <v>251100</v>
       </c>
       <c r="F14" s="3">
-        <v>484000</v>
+        <v>493300</v>
       </c>
       <c r="G14" s="3">
-        <v>1092500</v>
+        <v>1113400</v>
       </c>
       <c r="H14" s="3">
-        <v>134200</v>
+        <v>136800</v>
       </c>
       <c r="I14" s="3">
-        <v>2177600</v>
+        <v>2219300</v>
       </c>
       <c r="J14" s="3">
-        <v>1508000</v>
+        <v>1536900</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -906,7 +941,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -916,61 +951,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20746700</v>
+        <v>21144300</v>
       </c>
       <c r="E17" s="3">
-        <v>17881600</v>
+        <v>18224300</v>
       </c>
       <c r="F17" s="3">
-        <v>23754900</v>
+        <v>24210200</v>
       </c>
       <c r="G17" s="3">
-        <v>26232900</v>
+        <v>26735700</v>
       </c>
       <c r="H17" s="3">
-        <v>25135500</v>
+        <v>25617200</v>
       </c>
       <c r="I17" s="3">
-        <v>25460000</v>
+        <v>25948000</v>
       </c>
       <c r="J17" s="3">
-        <v>23624500</v>
+        <v>24077200</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>783200</v>
+        <v>798200</v>
       </c>
       <c r="E18" s="3">
-        <v>307600</v>
+        <v>313500</v>
       </c>
       <c r="F18" s="3">
-        <v>-1920600</v>
+        <v>-1957400</v>
       </c>
       <c r="G18" s="3">
-        <v>-1518800</v>
+        <v>-1547900</v>
       </c>
       <c r="H18" s="3">
-        <v>828700</v>
+        <v>844600</v>
       </c>
       <c r="I18" s="3">
-        <v>-3475000</v>
+        <v>-3541600</v>
       </c>
       <c r="J18" s="3">
-        <v>-1841100</v>
+        <v>-1876400</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -983,142 +1018,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>52500</v>
+        <v>53500</v>
       </c>
       <c r="E20" s="3">
-        <v>-256100</v>
+        <v>-261000</v>
       </c>
       <c r="F20" s="3">
-        <v>36600</v>
+        <v>37300</v>
       </c>
       <c r="G20" s="3">
-        <v>49500</v>
+        <v>50400</v>
       </c>
       <c r="H20" s="3">
-        <v>-237100</v>
+        <v>-241600</v>
       </c>
       <c r="I20" s="3">
-        <v>-543300</v>
+        <v>-553700</v>
       </c>
       <c r="J20" s="3">
-        <v>-197100</v>
+        <v>-200900</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1510900</v>
+        <v>1540600</v>
       </c>
       <c r="E21" s="3">
-        <v>656800</v>
+        <v>670000</v>
       </c>
       <c r="F21" s="3">
-        <v>-1203500</v>
+        <v>-1225800</v>
       </c>
       <c r="G21" s="3">
-        <v>-499600</v>
+        <v>-508100</v>
       </c>
       <c r="H21" s="3">
-        <v>1689500</v>
+        <v>1723100</v>
       </c>
       <c r="I21" s="3">
-        <v>-2441500</v>
+        <v>-2486500</v>
       </c>
       <c r="J21" s="3">
-        <v>165400</v>
+        <v>171000</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>42600</v>
+        <v>43400</v>
       </c>
       <c r="E22" s="3">
-        <v>56700</v>
+        <v>57800</v>
       </c>
       <c r="F22" s="3">
-        <v>166100</v>
+        <v>169200</v>
       </c>
       <c r="G22" s="3">
-        <v>205600</v>
+        <v>209600</v>
       </c>
       <c r="H22" s="3">
-        <v>183800</v>
+        <v>187400</v>
       </c>
       <c r="I22" s="3">
-        <v>116800</v>
+        <v>119100</v>
       </c>
       <c r="J22" s="3">
-        <v>76700</v>
+        <v>78200</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>793100</v>
+        <v>808300</v>
       </c>
       <c r="E23" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F23" s="3">
-        <v>-2050100</v>
+        <v>-2089300</v>
       </c>
       <c r="G23" s="3">
-        <v>-1675000</v>
+        <v>-1707100</v>
       </c>
       <c r="H23" s="3">
-        <v>407800</v>
+        <v>415600</v>
       </c>
       <c r="I23" s="3">
-        <v>-4135100</v>
+        <v>-4214300</v>
       </c>
       <c r="J23" s="3">
-        <v>-2114900</v>
+        <v>-2155400</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>166000</v>
+        <v>169100</v>
       </c>
       <c r="E24" s="3">
-        <v>210600</v>
+        <v>214600</v>
       </c>
       <c r="F24" s="3">
-        <v>195700</v>
+        <v>199500</v>
       </c>
       <c r="G24" s="3">
-        <v>278600</v>
+        <v>284000</v>
       </c>
       <c r="H24" s="3">
-        <v>292600</v>
+        <v>298200</v>
       </c>
       <c r="I24" s="3">
-        <v>688100</v>
+        <v>701300</v>
       </c>
       <c r="J24" s="3">
-        <v>1198700</v>
+        <v>1221700</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,61 +1180,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>627200</v>
+        <v>639200</v>
       </c>
       <c r="E26" s="3">
-        <v>-215800</v>
+        <v>-219900</v>
       </c>
       <c r="F26" s="3">
-        <v>-2245800</v>
+        <v>-2288800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1953600</v>
+        <v>-1991000</v>
       </c>
       <c r="H26" s="3">
-        <v>115200</v>
+        <v>117400</v>
       </c>
       <c r="I26" s="3">
-        <v>-4823200</v>
+        <v>-4915600</v>
       </c>
       <c r="J26" s="3">
-        <v>-3313600</v>
+        <v>-3377100</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>574700</v>
+        <v>585800</v>
       </c>
       <c r="E27" s="3">
-        <v>-268100</v>
+        <v>-273300</v>
       </c>
       <c r="F27" s="3">
-        <v>-2319100</v>
+        <v>-2363500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1972200</v>
+        <v>-2010000</v>
       </c>
       <c r="H27" s="3">
-        <v>102500</v>
+        <v>104500</v>
       </c>
       <c r="I27" s="3">
-        <v>-4837200</v>
+        <v>-4929900</v>
       </c>
       <c r="J27" s="3">
-        <v>-3335800</v>
+        <v>-3399700</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,7 +1261,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1253,7 +1288,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1280,7 +1315,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1307,61 +1342,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-52500</v>
+        <v>-53500</v>
       </c>
       <c r="E32" s="3">
-        <v>256100</v>
+        <v>261000</v>
       </c>
       <c r="F32" s="3">
-        <v>-36600</v>
+        <v>-37300</v>
       </c>
       <c r="G32" s="3">
-        <v>-49500</v>
+        <v>-50400</v>
       </c>
       <c r="H32" s="3">
-        <v>237100</v>
+        <v>241600</v>
       </c>
       <c r="I32" s="3">
-        <v>543300</v>
+        <v>553700</v>
       </c>
       <c r="J32" s="3">
-        <v>197100</v>
+        <v>200900</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>574700</v>
+        <v>585800</v>
       </c>
       <c r="E33" s="3">
-        <v>-268100</v>
+        <v>-273300</v>
       </c>
       <c r="F33" s="3">
-        <v>-2319100</v>
+        <v>-2363500</v>
       </c>
       <c r="G33" s="3">
-        <v>-1972200</v>
+        <v>-2010000</v>
       </c>
       <c r="H33" s="3">
-        <v>102500</v>
+        <v>104500</v>
       </c>
       <c r="I33" s="3">
-        <v>-4837200</v>
+        <v>-4929900</v>
       </c>
       <c r="J33" s="3">
-        <v>-3335800</v>
+        <v>-3399700</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1388,39 +1423,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>574700</v>
+        <v>585800</v>
       </c>
       <c r="E35" s="3">
-        <v>-268100</v>
+        <v>-273300</v>
       </c>
       <c r="F35" s="3">
-        <v>-2319100</v>
+        <v>-2363500</v>
       </c>
       <c r="G35" s="3">
-        <v>-1972200</v>
+        <v>-2010000</v>
       </c>
       <c r="H35" s="3">
-        <v>102500</v>
+        <v>104500</v>
       </c>
       <c r="I35" s="3">
-        <v>-4837200</v>
+        <v>-4929900</v>
       </c>
       <c r="J35" s="3">
-        <v>-3335800</v>
+        <v>-3399700</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1447,7 +1482,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1460,7 +1495,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1473,34 +1508,34 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3745800</v>
+        <v>3817600</v>
       </c>
       <c r="E41" s="3">
-        <v>4276400</v>
+        <v>4358300</v>
       </c>
       <c r="F41" s="3">
-        <v>2442800</v>
+        <v>2489600</v>
       </c>
       <c r="G41" s="3">
-        <v>2292800</v>
+        <v>2336800</v>
       </c>
       <c r="H41" s="3">
-        <v>3367000</v>
+        <v>3431500</v>
       </c>
       <c r="I41" s="3">
-        <v>1702500</v>
+        <v>1735100</v>
       </c>
       <c r="J41" s="3">
-        <v>3465100</v>
+        <v>3531500</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1527,196 +1562,196 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4110900</v>
+        <v>4189700</v>
       </c>
       <c r="E43" s="3">
-        <v>3255300</v>
+        <v>3317700</v>
       </c>
       <c r="F43" s="3">
-        <v>3814400</v>
+        <v>3887500</v>
       </c>
       <c r="G43" s="3">
-        <v>5372300</v>
+        <v>5475300</v>
       </c>
       <c r="H43" s="3">
-        <v>5045700</v>
+        <v>5142400</v>
       </c>
       <c r="I43" s="3">
-        <v>4951500</v>
+        <v>5046400</v>
       </c>
       <c r="J43" s="3">
-        <v>7309300</v>
+        <v>7449400</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3897700</v>
+        <v>3972400</v>
       </c>
       <c r="E44" s="3">
-        <v>1932700</v>
+        <v>1969700</v>
       </c>
       <c r="F44" s="3">
-        <v>1634900</v>
+        <v>1666200</v>
       </c>
       <c r="G44" s="3">
-        <v>3000700</v>
+        <v>3058200</v>
       </c>
       <c r="H44" s="3">
-        <v>2617800</v>
+        <v>2667900</v>
       </c>
       <c r="I44" s="3">
-        <v>2756000</v>
+        <v>2808800</v>
       </c>
       <c r="J44" s="3">
-        <v>9357500</v>
+        <v>9536900</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>991000</v>
+        <v>1009900</v>
       </c>
       <c r="E45" s="3">
-        <v>1123800</v>
+        <v>1145300</v>
       </c>
       <c r="F45" s="3">
-        <v>676000</v>
+        <v>689000</v>
       </c>
       <c r="G45" s="3">
-        <v>858000</v>
+        <v>874400</v>
       </c>
       <c r="H45" s="3">
-        <v>1159000</v>
+        <v>1181300</v>
       </c>
       <c r="I45" s="3">
-        <v>1427700</v>
+        <v>1455000</v>
       </c>
       <c r="J45" s="3">
-        <v>5078800</v>
+        <v>5176100</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10796500</v>
+        <v>11003400</v>
       </c>
       <c r="E46" s="3">
-        <v>10588200</v>
+        <v>10791100</v>
       </c>
       <c r="F46" s="3">
-        <v>8568100</v>
+        <v>8732300</v>
       </c>
       <c r="G46" s="3">
-        <v>11523900</v>
+        <v>11744700</v>
       </c>
       <c r="H46" s="3">
-        <v>12189500</v>
+        <v>12423200</v>
       </c>
       <c r="I46" s="3">
-        <v>10837700</v>
+        <v>11045400</v>
       </c>
       <c r="J46" s="3">
-        <v>12605400</v>
+        <v>12847000</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3033800</v>
+        <v>3091900</v>
       </c>
       <c r="E47" s="3">
-        <v>1319200</v>
+        <v>1344400</v>
       </c>
       <c r="F47" s="3">
-        <v>1456200</v>
+        <v>1484100</v>
       </c>
       <c r="G47" s="3">
-        <v>1480000</v>
+        <v>1508400</v>
       </c>
       <c r="H47" s="3">
-        <v>1541100</v>
+        <v>1570700</v>
       </c>
       <c r="I47" s="3">
-        <v>1383600</v>
+        <v>1410100</v>
       </c>
       <c r="J47" s="3">
-        <v>1759800</v>
+        <v>1793500</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5025300</v>
+        <v>5121600</v>
       </c>
       <c r="E48" s="3">
-        <v>3101100</v>
+        <v>3160500</v>
       </c>
       <c r="F48" s="3">
-        <v>3115200</v>
+        <v>3174900</v>
       </c>
       <c r="G48" s="3">
-        <v>3553300</v>
+        <v>3621400</v>
       </c>
       <c r="H48" s="3">
-        <v>4609700</v>
+        <v>4698100</v>
       </c>
       <c r="I48" s="3">
-        <v>5000000</v>
+        <v>5095800</v>
       </c>
       <c r="J48" s="3">
-        <v>15477100</v>
+        <v>15773800</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>794700</v>
+        <v>809900</v>
       </c>
       <c r="E49" s="3">
-        <v>375700</v>
+        <v>382900</v>
       </c>
       <c r="F49" s="3">
-        <v>369300</v>
+        <v>376400</v>
       </c>
       <c r="G49" s="3">
-        <v>376800</v>
+        <v>384100</v>
       </c>
       <c r="H49" s="3">
-        <v>408400</v>
+        <v>416300</v>
       </c>
       <c r="I49" s="3">
-        <v>525200</v>
+        <v>535300</v>
       </c>
       <c r="J49" s="3">
-        <v>1349000</v>
+        <v>1374800</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1743,7 +1778,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1770,34 +1805,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>793600</v>
+        <v>808800</v>
       </c>
       <c r="E52" s="3">
-        <v>348400</v>
+        <v>355100</v>
       </c>
       <c r="F52" s="3">
-        <v>423100</v>
+        <v>431200</v>
       </c>
       <c r="G52" s="3">
-        <v>468200</v>
+        <v>477200</v>
       </c>
       <c r="H52" s="3">
-        <v>602600</v>
+        <v>614200</v>
       </c>
       <c r="I52" s="3">
-        <v>772000</v>
+        <v>786800</v>
       </c>
       <c r="J52" s="3">
-        <v>2578100</v>
+        <v>2627500</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1824,34 +1859,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>16928000</v>
+        <v>17252500</v>
       </c>
       <c r="E54" s="3">
-        <v>15732600</v>
+        <v>16034100</v>
       </c>
       <c r="F54" s="3">
-        <v>13931900</v>
+        <v>14198900</v>
       </c>
       <c r="G54" s="3">
-        <v>17402100</v>
+        <v>17735700</v>
       </c>
       <c r="H54" s="3">
-        <v>19351500</v>
+        <v>19722400</v>
       </c>
       <c r="I54" s="3">
-        <v>18518500</v>
+        <v>18873400</v>
       </c>
       <c r="J54" s="3">
-        <v>23187400</v>
+        <v>23631800</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1864,7 +1899,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1877,169 +1912,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3809500</v>
+        <v>3882500</v>
       </c>
       <c r="E57" s="3">
-        <v>3109500</v>
+        <v>3169100</v>
       </c>
       <c r="F57" s="3">
-        <v>2472000</v>
+        <v>2519300</v>
       </c>
       <c r="G57" s="3">
-        <v>3759800</v>
+        <v>3831900</v>
       </c>
       <c r="H57" s="3">
-        <v>3321500</v>
+        <v>3385200</v>
       </c>
       <c r="I57" s="3">
-        <v>3238600</v>
+        <v>3300700</v>
       </c>
       <c r="J57" s="3">
-        <v>6418100</v>
+        <v>6541200</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1568100</v>
+        <v>1598200</v>
       </c>
       <c r="E58" s="3">
-        <v>1055500</v>
+        <v>1075800</v>
       </c>
       <c r="F58" s="3">
-        <v>5665800</v>
+        <v>5774400</v>
       </c>
       <c r="G58" s="3">
-        <v>7530200</v>
+        <v>7674500</v>
       </c>
       <c r="H58" s="3">
-        <v>6935400</v>
+        <v>7068300</v>
       </c>
       <c r="I58" s="3">
-        <v>8074300</v>
+        <v>8229100</v>
       </c>
       <c r="J58" s="3">
-        <v>10385900</v>
+        <v>10585000</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4978700</v>
+        <v>5074100</v>
       </c>
       <c r="E59" s="3">
-        <v>2945500</v>
+        <v>3001900</v>
       </c>
       <c r="F59" s="3">
-        <v>4057300</v>
+        <v>4135100</v>
       </c>
       <c r="G59" s="3">
-        <v>3673300</v>
+        <v>3743700</v>
       </c>
       <c r="H59" s="3">
-        <v>3505900</v>
+        <v>3573100</v>
       </c>
       <c r="I59" s="3">
-        <v>3478100</v>
+        <v>3544700</v>
       </c>
       <c r="J59" s="3">
-        <v>7873700</v>
+        <v>8024600</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>7392900</v>
+        <v>7534500</v>
       </c>
       <c r="E60" s="3">
-        <v>7110500</v>
+        <v>7246800</v>
       </c>
       <c r="F60" s="3">
-        <v>12195000</v>
+        <v>12428800</v>
       </c>
       <c r="G60" s="3">
-        <v>14963300</v>
+        <v>15250100</v>
       </c>
       <c r="H60" s="3">
-        <v>13762900</v>
+        <v>14026700</v>
       </c>
       <c r="I60" s="3">
-        <v>14791000</v>
+        <v>15074500</v>
       </c>
       <c r="J60" s="3">
-        <v>12338900</v>
+        <v>12575400</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>4763400</v>
+        <v>4854700</v>
       </c>
       <c r="E61" s="3">
-        <v>4776000</v>
+        <v>4867500</v>
       </c>
       <c r="F61" s="3">
-        <v>818400</v>
+        <v>834100</v>
       </c>
       <c r="G61" s="3">
-        <v>1111700</v>
+        <v>1133000</v>
       </c>
       <c r="H61" s="3">
-        <v>2567700</v>
+        <v>2616900</v>
       </c>
       <c r="I61" s="3">
-        <v>2067500</v>
+        <v>2107100</v>
       </c>
       <c r="J61" s="3">
-        <v>4515000</v>
+        <v>4601500</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1471700</v>
+        <v>1499900</v>
       </c>
       <c r="E62" s="3">
-        <v>1115900</v>
+        <v>1137300</v>
       </c>
       <c r="F62" s="3">
-        <v>1195300</v>
+        <v>1218200</v>
       </c>
       <c r="G62" s="3">
-        <v>932300</v>
+        <v>950200</v>
       </c>
       <c r="H62" s="3">
-        <v>1183300</v>
+        <v>1206000</v>
       </c>
       <c r="I62" s="3">
-        <v>464000</v>
+        <v>472800</v>
       </c>
       <c r="J62" s="3">
-        <v>1222600</v>
+        <v>1246100</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2066,7 +2101,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,7 +2128,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2120,34 +2155,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>13571200</v>
+        <v>13831300</v>
       </c>
       <c r="E66" s="3">
-        <v>13123400</v>
+        <v>13374900</v>
       </c>
       <c r="F66" s="3">
-        <v>14313700</v>
+        <v>14588000</v>
       </c>
       <c r="G66" s="3">
-        <v>17134600</v>
+        <v>17463000</v>
       </c>
       <c r="H66" s="3">
-        <v>17620400</v>
+        <v>17958100</v>
       </c>
       <c r="I66" s="3">
-        <v>17412600</v>
+        <v>17746400</v>
       </c>
       <c r="J66" s="3">
-        <v>17635700</v>
+        <v>17973700</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2160,7 +2195,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2187,7 +2222,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2214,18 +2249,18 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D70" s="3">
-        <v>1774000</v>
+        <v>1808000</v>
       </c>
       <c r="E70" s="3">
-        <v>1774000</v>
+        <v>1808000</v>
       </c>
       <c r="F70" s="3">
-        <v>1995700</v>
+        <v>2034000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2241,7 +2276,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2268,34 +2303,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1818500</v>
+        <v>1853300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1318100</v>
+        <v>-1343300</v>
       </c>
       <c r="F72" s="3">
-        <v>-3088000</v>
+        <v>-3147200</v>
       </c>
       <c r="G72" s="3">
-        <v>-775700</v>
+        <v>-790500</v>
       </c>
       <c r="H72" s="3">
-        <v>1198300</v>
+        <v>1221300</v>
       </c>
       <c r="I72" s="3">
-        <v>-2580400</v>
+        <v>-2629800</v>
       </c>
       <c r="J72" s="3">
-        <v>4611300</v>
+        <v>4699700</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2322,7 +2357,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2349,7 +2384,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2376,34 +2411,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1582800</v>
+        <v>1613200</v>
       </c>
       <c r="E76" s="3">
-        <v>835200</v>
+        <v>851200</v>
       </c>
       <c r="F76" s="3">
-        <v>-2377600</v>
+        <v>-2423200</v>
       </c>
       <c r="G76" s="3">
-        <v>267600</v>
+        <v>272700</v>
       </c>
       <c r="H76" s="3">
-        <v>1731100</v>
+        <v>1764200</v>
       </c>
       <c r="I76" s="3">
-        <v>1105800</v>
+        <v>1127000</v>
       </c>
       <c r="J76" s="3">
-        <v>5551700</v>
+        <v>5658100</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2430,12 +2465,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2462,34 +2497,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>574700</v>
+        <v>585800</v>
       </c>
       <c r="E81" s="3">
-        <v>-268100</v>
+        <v>-273300</v>
       </c>
       <c r="F81" s="3">
-        <v>-2319100</v>
+        <v>-2363500</v>
       </c>
       <c r="G81" s="3">
-        <v>-1972200</v>
+        <v>-2010000</v>
       </c>
       <c r="H81" s="3">
-        <v>102500</v>
+        <v>104500</v>
       </c>
       <c r="I81" s="3">
-        <v>-4837200</v>
+        <v>-4929900</v>
       </c>
       <c r="J81" s="3">
-        <v>-3335800</v>
+        <v>-3399700</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2502,34 +2537,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>675100</v>
+        <v>688100</v>
       </c>
       <c r="E83" s="3">
-        <v>605200</v>
+        <v>616800</v>
       </c>
       <c r="F83" s="3">
-        <v>680500</v>
+        <v>693600</v>
       </c>
       <c r="G83" s="3">
-        <v>969700</v>
+        <v>988300</v>
       </c>
       <c r="H83" s="3">
-        <v>1097900</v>
+        <v>1118900</v>
       </c>
       <c r="I83" s="3">
-        <v>1576800</v>
+        <v>1607000</v>
       </c>
       <c r="J83" s="3">
-        <v>2203500</v>
+        <v>2245800</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2556,7 +2591,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2583,7 +2618,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2610,7 +2645,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2637,7 +2672,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2664,34 +2699,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>929700</v>
+        <v>947500</v>
       </c>
       <c r="E89" s="3">
-        <v>1125300</v>
+        <v>1146900</v>
       </c>
       <c r="F89" s="3">
-        <v>-167300</v>
+        <v>-170500</v>
       </c>
       <c r="G89" s="3">
-        <v>153800</v>
+        <v>156700</v>
       </c>
       <c r="H89" s="3">
-        <v>1765000</v>
+        <v>1798800</v>
       </c>
       <c r="I89" s="3">
-        <v>-719100</v>
+        <v>-732900</v>
       </c>
       <c r="J89" s="3">
-        <v>-1271100</v>
+        <v>-1295500</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2704,34 +2739,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-905300</v>
+        <v>-922600</v>
       </c>
       <c r="E91" s="3">
-        <v>-686500</v>
+        <v>-699700</v>
       </c>
       <c r="F91" s="3">
-        <v>-411200</v>
+        <v>-419100</v>
       </c>
       <c r="G91" s="3">
-        <v>-440900</v>
+        <v>-449400</v>
       </c>
       <c r="H91" s="3">
-        <v>-405400</v>
+        <v>-413200</v>
       </c>
       <c r="I91" s="3">
-        <v>-545100</v>
+        <v>-555600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1048200</v>
+        <v>-1068200</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2758,7 +2793,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2785,34 +2820,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1117700</v>
+        <v>-1139100</v>
       </c>
       <c r="E94" s="3">
-        <v>-804300</v>
+        <v>-819700</v>
       </c>
       <c r="F94" s="3">
-        <v>-359400</v>
+        <v>-366200</v>
       </c>
       <c r="G94" s="3">
-        <v>-142300</v>
+        <v>-145000</v>
       </c>
       <c r="H94" s="3">
-        <v>-753400</v>
+        <v>-767900</v>
       </c>
       <c r="I94" s="3">
-        <v>63100</v>
+        <v>64300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1415300</v>
+        <v>-1442400</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2825,7 +2860,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -2845,14 +2880,14 @@
         <v>-300</v>
       </c>
       <c r="I96" s="3">
-        <v>-48800</v>
+        <v>-49700</v>
       </c>
       <c r="J96" s="3">
-        <v>-117400</v>
+        <v>-119700</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2879,7 +2914,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2906,7 +2941,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2933,84 +2968,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-258400</v>
+        <v>-263400</v>
       </c>
       <c r="E100" s="3">
-        <v>2414400</v>
+        <v>2460700</v>
       </c>
       <c r="F100" s="3">
-        <v>-136200</v>
+        <v>-138900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1207100</v>
+        <v>-1230300</v>
       </c>
       <c r="H100" s="3">
-        <v>290500</v>
+        <v>296100</v>
       </c>
       <c r="I100" s="3">
-        <v>458000</v>
+        <v>466800</v>
       </c>
       <c r="J100" s="3">
-        <v>2274100</v>
+        <v>2317700</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="E101" s="3">
-        <v>-39400</v>
+        <v>-40200</v>
       </c>
       <c r="F101" s="3">
-        <v>-70400</v>
+        <v>-71800</v>
       </c>
       <c r="G101" s="3">
-        <v>145200</v>
+        <v>148000</v>
       </c>
       <c r="H101" s="3">
-        <v>141700</v>
+        <v>144400</v>
       </c>
       <c r="I101" s="3">
-        <v>145600</v>
+        <v>148400</v>
       </c>
       <c r="J101" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-438800</v>
+        <v>-447300</v>
       </c>
       <c r="E102" s="3">
-        <v>2696000</v>
+        <v>2747700</v>
       </c>
       <c r="F102" s="3">
-        <v>-733400</v>
+        <v>-747400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1050400</v>
+        <v>-1070500</v>
       </c>
       <c r="H102" s="3">
-        <v>1443800</v>
+        <v>1471400</v>
       </c>
       <c r="I102" s="3">
-        <v>-52400</v>
+        <v>-53400</v>
       </c>
       <c r="J102" s="3">
-        <v>-421800</v>
+        <v>-429900</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/SHCAY_YR_FIN.xlsx
+++ b/Financials/Yearly/SHCAY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E03C5C4-422E-4AD5-828C-3BDCBB104910}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SHCAY" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,141 +651,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21942500</v>
+        <v>21816700</v>
       </c>
       <c r="E8" s="3">
-        <v>18537800</v>
+        <v>22063900</v>
       </c>
       <c r="F8" s="3">
-        <v>22252800</v>
+        <v>18640300</v>
       </c>
       <c r="G8" s="3">
-        <v>25187800</v>
+        <v>22375800</v>
       </c>
       <c r="H8" s="3">
-        <v>26461800</v>
+        <v>25327100</v>
       </c>
       <c r="I8" s="3">
-        <v>22406400</v>
+        <v>26608100</v>
       </c>
       <c r="J8" s="3">
+        <v>22530300</v>
+      </c>
+      <c r="K8" s="3">
         <v>22200900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18288000</v>
+        <v>17961500</v>
       </c>
       <c r="E9" s="3">
-        <v>15067700</v>
+        <v>18389100</v>
       </c>
       <c r="F9" s="3">
-        <v>20143600</v>
+        <v>15151100</v>
       </c>
       <c r="G9" s="3">
-        <v>21675700</v>
+        <v>20255000</v>
       </c>
       <c r="H9" s="3">
-        <v>21662900</v>
+        <v>21795500</v>
       </c>
       <c r="I9" s="3">
-        <v>20050700</v>
+        <v>21782800</v>
       </c>
       <c r="J9" s="3">
+        <v>20161600</v>
+      </c>
+      <c r="K9" s="3">
         <v>36952700</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3654500</v>
+        <v>3855200</v>
       </c>
       <c r="E10" s="3">
-        <v>3470000</v>
+        <v>3674800</v>
       </c>
       <c r="F10" s="3">
-        <v>2109100</v>
+        <v>3489200</v>
       </c>
       <c r="G10" s="3">
-        <v>3512100</v>
+        <v>2120800</v>
       </c>
       <c r="H10" s="3">
-        <v>4798800</v>
+        <v>3531500</v>
       </c>
       <c r="I10" s="3">
-        <v>2355700</v>
+        <v>4825400</v>
       </c>
       <c r="J10" s="3">
+        <v>2368700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-14751800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,35 +809,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>205300</v>
+        <v>300200</v>
       </c>
       <c r="E12" s="3">
-        <v>222900</v>
+        <v>206400</v>
       </c>
       <c r="F12" s="3">
-        <v>272300</v>
+        <v>224100</v>
       </c>
       <c r="G12" s="3">
-        <v>331800</v>
+        <v>273800</v>
       </c>
       <c r="H12" s="3">
-        <v>301000</v>
+        <v>333700</v>
       </c>
       <c r="I12" s="3">
-        <v>293900</v>
+        <v>302700</v>
       </c>
       <c r="J12" s="3">
+        <v>295500</v>
+      </c>
+      <c r="K12" s="3">
         <v>646900</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -885,36 +866,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>16500</v>
+        <v>26000</v>
       </c>
       <c r="E14" s="3">
-        <v>251100</v>
+        <v>16600</v>
       </c>
       <c r="F14" s="3">
-        <v>493300</v>
+        <v>252500</v>
       </c>
       <c r="G14" s="3">
-        <v>1113400</v>
+        <v>496000</v>
       </c>
       <c r="H14" s="3">
-        <v>136800</v>
+        <v>1119600</v>
       </c>
       <c r="I14" s="3">
-        <v>2219300</v>
+        <v>137600</v>
       </c>
       <c r="J14" s="3">
+        <v>2231600</v>
+      </c>
+      <c r="K14" s="3">
         <v>1536900</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,9 +926,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -950,62 +940,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>21144300</v>
+        <v>21077800</v>
       </c>
       <c r="E17" s="3">
-        <v>18224300</v>
+        <v>21261200</v>
       </c>
       <c r="F17" s="3">
-        <v>24210200</v>
+        <v>18325100</v>
       </c>
       <c r="G17" s="3">
-        <v>26735700</v>
+        <v>24344100</v>
       </c>
       <c r="H17" s="3">
-        <v>25617200</v>
+        <v>26883500</v>
       </c>
       <c r="I17" s="3">
-        <v>25948000</v>
+        <v>25758900</v>
       </c>
       <c r="J17" s="3">
+        <v>26091500</v>
+      </c>
+      <c r="K17" s="3">
         <v>24077200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>798200</v>
+        <v>738800</v>
       </c>
       <c r="E18" s="3">
-        <v>313500</v>
+        <v>802600</v>
       </c>
       <c r="F18" s="3">
-        <v>-1957400</v>
+        <v>315200</v>
       </c>
       <c r="G18" s="3">
-        <v>-1547900</v>
+        <v>-1968300</v>
       </c>
       <c r="H18" s="3">
-        <v>844600</v>
+        <v>-1556500</v>
       </c>
       <c r="I18" s="3">
-        <v>-3541600</v>
+        <v>849200</v>
       </c>
       <c r="J18" s="3">
+        <v>-3561200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1876400</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,143 +1014,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>53500</v>
+        <v>-12000</v>
       </c>
       <c r="E20" s="3">
-        <v>-261000</v>
+        <v>53800</v>
       </c>
       <c r="F20" s="3">
-        <v>37300</v>
+        <v>-262400</v>
       </c>
       <c r="G20" s="3">
-        <v>50400</v>
+        <v>37600</v>
       </c>
       <c r="H20" s="3">
-        <v>-241600</v>
+        <v>50700</v>
       </c>
       <c r="I20" s="3">
-        <v>-553700</v>
+        <v>-243000</v>
       </c>
       <c r="J20" s="3">
+        <v>-556800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1540600</v>
+        <v>1445200</v>
       </c>
       <c r="E21" s="3">
-        <v>670000</v>
+        <v>1549800</v>
       </c>
       <c r="F21" s="3">
-        <v>-1225800</v>
+        <v>674400</v>
       </c>
       <c r="G21" s="3">
-        <v>-508100</v>
+        <v>-1231800</v>
       </c>
       <c r="H21" s="3">
-        <v>1723100</v>
+        <v>-509800</v>
       </c>
       <c r="I21" s="3">
-        <v>-2486500</v>
+        <v>1733900</v>
       </c>
       <c r="J21" s="3">
+        <v>-2498500</v>
+      </c>
+      <c r="K21" s="3">
         <v>171000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>43400</v>
+        <v>39800</v>
       </c>
       <c r="E22" s="3">
-        <v>57800</v>
+        <v>43600</v>
       </c>
       <c r="F22" s="3">
-        <v>169200</v>
+        <v>58100</v>
       </c>
       <c r="G22" s="3">
-        <v>209600</v>
+        <v>170200</v>
       </c>
       <c r="H22" s="3">
-        <v>187400</v>
+        <v>210700</v>
       </c>
       <c r="I22" s="3">
-        <v>119100</v>
+        <v>188400</v>
       </c>
       <c r="J22" s="3">
+        <v>119700</v>
+      </c>
+      <c r="K22" s="3">
         <v>78200</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>808300</v>
+        <v>687100</v>
       </c>
       <c r="E23" s="3">
+        <v>812800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2089300</v>
-      </c>
       <c r="G23" s="3">
-        <v>-1707100</v>
+        <v>-2100900</v>
       </c>
       <c r="H23" s="3">
-        <v>415600</v>
+        <v>-1716500</v>
       </c>
       <c r="I23" s="3">
-        <v>-4214300</v>
+        <v>417900</v>
       </c>
       <c r="J23" s="3">
+        <v>-4237600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2155400</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>169100</v>
+        <v>19800</v>
       </c>
       <c r="E24" s="3">
-        <v>214600</v>
+        <v>170100</v>
       </c>
       <c r="F24" s="3">
-        <v>199500</v>
+        <v>215800</v>
       </c>
       <c r="G24" s="3">
-        <v>284000</v>
+        <v>200600</v>
       </c>
       <c r="H24" s="3">
-        <v>298200</v>
+        <v>285500</v>
       </c>
       <c r="I24" s="3">
-        <v>701300</v>
+        <v>299800</v>
       </c>
       <c r="J24" s="3">
+        <v>705200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1221700</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1178,63 +1191,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>639200</v>
+        <v>667300</v>
       </c>
       <c r="E26" s="3">
-        <v>-219900</v>
+        <v>642700</v>
       </c>
       <c r="F26" s="3">
-        <v>-2288800</v>
+        <v>-221100</v>
       </c>
       <c r="G26" s="3">
-        <v>-1991000</v>
+        <v>-2301500</v>
       </c>
       <c r="H26" s="3">
-        <v>117400</v>
+        <v>-2002000</v>
       </c>
       <c r="I26" s="3">
-        <v>-4915600</v>
+        <v>118100</v>
       </c>
       <c r="J26" s="3">
+        <v>-4942800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3377100</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>585800</v>
+        <v>648600</v>
       </c>
       <c r="E27" s="3">
-        <v>-273300</v>
+        <v>589000</v>
       </c>
       <c r="F27" s="3">
-        <v>-2363500</v>
+        <v>-274800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2010000</v>
+        <v>-2376600</v>
       </c>
       <c r="H27" s="3">
-        <v>104500</v>
+        <v>-2021100</v>
       </c>
       <c r="I27" s="3">
-        <v>-4929900</v>
+        <v>105100</v>
       </c>
       <c r="J27" s="3">
+        <v>-4957200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3399700</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1259,9 +1281,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1311,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1313,9 +1341,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1340,63 +1371,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-53500</v>
+        <v>12000</v>
       </c>
       <c r="E32" s="3">
-        <v>261000</v>
+        <v>-53800</v>
       </c>
       <c r="F32" s="3">
-        <v>-37300</v>
+        <v>262400</v>
       </c>
       <c r="G32" s="3">
-        <v>-50400</v>
+        <v>-37600</v>
       </c>
       <c r="H32" s="3">
-        <v>241600</v>
+        <v>-50700</v>
       </c>
       <c r="I32" s="3">
-        <v>553700</v>
+        <v>243000</v>
       </c>
       <c r="J32" s="3">
+        <v>556800</v>
+      </c>
+      <c r="K32" s="3">
         <v>200900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>585800</v>
+        <v>648600</v>
       </c>
       <c r="E33" s="3">
-        <v>-273300</v>
+        <v>589000</v>
       </c>
       <c r="F33" s="3">
-        <v>-2363500</v>
+        <v>-274800</v>
       </c>
       <c r="G33" s="3">
-        <v>-2010000</v>
+        <v>-2376600</v>
       </c>
       <c r="H33" s="3">
-        <v>104500</v>
+        <v>-2021100</v>
       </c>
       <c r="I33" s="3">
-        <v>-4929900</v>
+        <v>105100</v>
       </c>
       <c r="J33" s="3">
+        <v>-4957200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3399700</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1421,68 +1461,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>585800</v>
+        <v>648600</v>
       </c>
       <c r="E35" s="3">
-        <v>-273300</v>
+        <v>589000</v>
       </c>
       <c r="F35" s="3">
-        <v>-2363500</v>
+        <v>-274800</v>
       </c>
       <c r="G35" s="3">
-        <v>-2010000</v>
+        <v>-2376600</v>
       </c>
       <c r="H35" s="3">
-        <v>104500</v>
+        <v>-2021100</v>
       </c>
       <c r="I35" s="3">
-        <v>-4929900</v>
+        <v>105100</v>
       </c>
       <c r="J35" s="3">
+        <v>-4957200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3399700</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1494,8 +1543,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1507,35 +1557,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3817600</v>
+        <v>2423800</v>
       </c>
       <c r="E41" s="3">
-        <v>4358300</v>
+        <v>3838700</v>
       </c>
       <c r="F41" s="3">
-        <v>2489600</v>
+        <v>4382400</v>
       </c>
       <c r="G41" s="3">
-        <v>2336800</v>
+        <v>2503400</v>
       </c>
       <c r="H41" s="3">
-        <v>3431500</v>
+        <v>2349700</v>
       </c>
       <c r="I41" s="3">
-        <v>1735100</v>
+        <v>3450500</v>
       </c>
       <c r="J41" s="3">
+        <v>1744700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3531500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1560,198 +1614,222 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4189700</v>
+        <v>4871600</v>
       </c>
       <c r="E43" s="3">
-        <v>3317700</v>
+        <v>4212800</v>
       </c>
       <c r="F43" s="3">
-        <v>3887500</v>
+        <v>3336000</v>
       </c>
       <c r="G43" s="3">
-        <v>5475300</v>
+        <v>3909000</v>
       </c>
       <c r="H43" s="3">
-        <v>5142400</v>
+        <v>5505500</v>
       </c>
       <c r="I43" s="3">
-        <v>5046400</v>
+        <v>5170900</v>
       </c>
       <c r="J43" s="3">
+        <v>5074300</v>
+      </c>
+      <c r="K43" s="3">
         <v>7449400</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3972400</v>
+        <v>2216600</v>
       </c>
       <c r="E44" s="3">
-        <v>1969700</v>
+        <v>3994400</v>
       </c>
       <c r="F44" s="3">
-        <v>1666200</v>
+        <v>1980600</v>
       </c>
       <c r="G44" s="3">
-        <v>3058200</v>
+        <v>1675400</v>
       </c>
       <c r="H44" s="3">
-        <v>2667900</v>
+        <v>3075100</v>
       </c>
       <c r="I44" s="3">
-        <v>2808800</v>
+        <v>2682700</v>
       </c>
       <c r="J44" s="3">
+        <v>2824300</v>
+      </c>
+      <c r="K44" s="3">
         <v>9536900</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1009900</v>
+        <v>863100</v>
       </c>
       <c r="E45" s="3">
-        <v>1145300</v>
+        <v>1015500</v>
       </c>
       <c r="F45" s="3">
-        <v>689000</v>
+        <v>1151700</v>
       </c>
       <c r="G45" s="3">
-        <v>874400</v>
+        <v>692800</v>
       </c>
       <c r="H45" s="3">
-        <v>1181300</v>
+        <v>879300</v>
       </c>
       <c r="I45" s="3">
-        <v>1455000</v>
+        <v>1187800</v>
       </c>
       <c r="J45" s="3">
+        <v>1463100</v>
+      </c>
+      <c r="K45" s="3">
         <v>5176100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>11003400</v>
+        <v>10375000</v>
       </c>
       <c r="E46" s="3">
-        <v>10791100</v>
+        <v>11064300</v>
       </c>
       <c r="F46" s="3">
-        <v>8732300</v>
+        <v>10850800</v>
       </c>
       <c r="G46" s="3">
-        <v>11744700</v>
+        <v>8780600</v>
       </c>
       <c r="H46" s="3">
-        <v>12423200</v>
+        <v>11809700</v>
       </c>
       <c r="I46" s="3">
-        <v>11045400</v>
+        <v>12491900</v>
       </c>
       <c r="J46" s="3">
+        <v>11106500</v>
+      </c>
+      <c r="K46" s="3">
         <v>12847000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3091900</v>
+        <v>1666200</v>
       </c>
       <c r="E47" s="3">
-        <v>1344400</v>
+        <v>3109000</v>
       </c>
       <c r="F47" s="3">
-        <v>1484100</v>
+        <v>1351900</v>
       </c>
       <c r="G47" s="3">
-        <v>1508400</v>
+        <v>1492300</v>
       </c>
       <c r="H47" s="3">
-        <v>1570700</v>
+        <v>1516700</v>
       </c>
       <c r="I47" s="3">
-        <v>1410100</v>
+        <v>1579400</v>
       </c>
       <c r="J47" s="3">
+        <v>1417900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1793500</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>5121600</v>
+        <v>3681800</v>
       </c>
       <c r="E48" s="3">
-        <v>3160500</v>
+        <v>5149900</v>
       </c>
       <c r="F48" s="3">
-        <v>3174900</v>
+        <v>3178000</v>
       </c>
       <c r="G48" s="3">
-        <v>3621400</v>
+        <v>3192500</v>
       </c>
       <c r="H48" s="3">
-        <v>4698100</v>
+        <v>3641400</v>
       </c>
       <c r="I48" s="3">
-        <v>5095800</v>
+        <v>4724100</v>
       </c>
       <c r="J48" s="3">
+        <v>5124000</v>
+      </c>
+      <c r="K48" s="3">
         <v>15773800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>809900</v>
+        <v>360800</v>
       </c>
       <c r="E49" s="3">
-        <v>382900</v>
+        <v>814400</v>
       </c>
       <c r="F49" s="3">
-        <v>376400</v>
+        <v>385000</v>
       </c>
       <c r="G49" s="3">
-        <v>384100</v>
+        <v>378500</v>
       </c>
       <c r="H49" s="3">
-        <v>416300</v>
+        <v>386200</v>
       </c>
       <c r="I49" s="3">
-        <v>535300</v>
+        <v>418600</v>
       </c>
       <c r="J49" s="3">
+        <v>538200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1374800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1776,9 +1854,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1803,36 +1884,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>808800</v>
+        <v>881200</v>
       </c>
       <c r="E52" s="3">
-        <v>355100</v>
+        <v>813300</v>
       </c>
       <c r="F52" s="3">
-        <v>431200</v>
+        <v>357000</v>
       </c>
       <c r="G52" s="3">
-        <v>477200</v>
+        <v>433600</v>
       </c>
       <c r="H52" s="3">
-        <v>614200</v>
+        <v>479800</v>
       </c>
       <c r="I52" s="3">
-        <v>786800</v>
+        <v>617600</v>
       </c>
       <c r="J52" s="3">
+        <v>791200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2627500</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1857,36 +1944,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>17252500</v>
+        <v>16965100</v>
       </c>
       <c r="E54" s="3">
-        <v>16034100</v>
+        <v>17347900</v>
       </c>
       <c r="F54" s="3">
-        <v>14198900</v>
+        <v>16122800</v>
       </c>
       <c r="G54" s="3">
-        <v>17735700</v>
+        <v>14277400</v>
       </c>
       <c r="H54" s="3">
-        <v>19722400</v>
+        <v>17833800</v>
       </c>
       <c r="I54" s="3">
-        <v>18873400</v>
+        <v>19831500</v>
       </c>
       <c r="J54" s="3">
+        <v>18977800</v>
+      </c>
+      <c r="K54" s="3">
         <v>23631800</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1898,8 +1991,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1911,170 +2005,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3882500</v>
+        <v>3729800</v>
       </c>
       <c r="E57" s="3">
-        <v>3169100</v>
+        <v>3903900</v>
       </c>
       <c r="F57" s="3">
-        <v>2519300</v>
+        <v>3186700</v>
       </c>
       <c r="G57" s="3">
-        <v>3831900</v>
+        <v>2533300</v>
       </c>
       <c r="H57" s="3">
-        <v>3385200</v>
+        <v>3853100</v>
       </c>
       <c r="I57" s="3">
-        <v>3300700</v>
+        <v>3403900</v>
       </c>
       <c r="J57" s="3">
+        <v>3318900</v>
+      </c>
+      <c r="K57" s="3">
         <v>6541200</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1598200</v>
+        <v>1052700</v>
       </c>
       <c r="E58" s="3">
-        <v>1075800</v>
+        <v>1607000</v>
       </c>
       <c r="F58" s="3">
-        <v>5774400</v>
+        <v>1081700</v>
       </c>
       <c r="G58" s="3">
-        <v>7674500</v>
+        <v>5806300</v>
       </c>
       <c r="H58" s="3">
-        <v>7068300</v>
+        <v>7716900</v>
       </c>
       <c r="I58" s="3">
-        <v>8229100</v>
+        <v>7107400</v>
       </c>
       <c r="J58" s="3">
+        <v>8274600</v>
+      </c>
+      <c r="K58" s="3">
         <v>10585000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>5074100</v>
+        <v>2608900</v>
       </c>
       <c r="E59" s="3">
-        <v>3001900</v>
+        <v>5102100</v>
       </c>
       <c r="F59" s="3">
-        <v>4135100</v>
+        <v>3018500</v>
       </c>
       <c r="G59" s="3">
-        <v>3743700</v>
+        <v>4157900</v>
       </c>
       <c r="H59" s="3">
-        <v>3573100</v>
+        <v>3764400</v>
       </c>
       <c r="I59" s="3">
-        <v>3544700</v>
+        <v>3592900</v>
       </c>
       <c r="J59" s="3">
+        <v>3564300</v>
+      </c>
+      <c r="K59" s="3">
         <v>8024600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>7534500</v>
+        <v>7391400</v>
       </c>
       <c r="E60" s="3">
-        <v>7246800</v>
+        <v>7576200</v>
       </c>
       <c r="F60" s="3">
-        <v>12428800</v>
+        <v>7286900</v>
       </c>
       <c r="G60" s="3">
-        <v>15250100</v>
+        <v>12497500</v>
       </c>
       <c r="H60" s="3">
-        <v>14026700</v>
+        <v>15334400</v>
       </c>
       <c r="I60" s="3">
-        <v>15074500</v>
+        <v>14104300</v>
       </c>
       <c r="J60" s="3">
+        <v>15157900</v>
+      </c>
+      <c r="K60" s="3">
         <v>12575400</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>4854700</v>
+        <v>5012200</v>
       </c>
       <c r="E61" s="3">
-        <v>4867500</v>
+        <v>4881600</v>
       </c>
       <c r="F61" s="3">
-        <v>834100</v>
+        <v>4894400</v>
       </c>
       <c r="G61" s="3">
-        <v>1133000</v>
+        <v>838700</v>
       </c>
       <c r="H61" s="3">
-        <v>2616900</v>
+        <v>1139200</v>
       </c>
       <c r="I61" s="3">
-        <v>2107100</v>
+        <v>2631400</v>
       </c>
       <c r="J61" s="3">
+        <v>2118800</v>
+      </c>
+      <c r="K61" s="3">
         <v>4601500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1499900</v>
+        <v>1175700</v>
       </c>
       <c r="E62" s="3">
-        <v>1137300</v>
+        <v>1508200</v>
       </c>
       <c r="F62" s="3">
-        <v>1218200</v>
+        <v>1143500</v>
       </c>
       <c r="G62" s="3">
-        <v>950200</v>
+        <v>1224900</v>
       </c>
       <c r="H62" s="3">
-        <v>1206000</v>
+        <v>955500</v>
       </c>
       <c r="I62" s="3">
-        <v>472800</v>
+        <v>1212600</v>
       </c>
       <c r="J62" s="3">
+        <v>475500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1246100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2099,9 +2212,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2126,9 +2242,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2153,36 +2272,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>13831300</v>
+        <v>13775700</v>
       </c>
       <c r="E66" s="3">
-        <v>13374900</v>
+        <v>13907800</v>
       </c>
       <c r="F66" s="3">
-        <v>14588000</v>
+        <v>13448900</v>
       </c>
       <c r="G66" s="3">
-        <v>17463000</v>
+        <v>14668700</v>
       </c>
       <c r="H66" s="3">
-        <v>17958100</v>
+        <v>17559500</v>
       </c>
       <c r="I66" s="3">
-        <v>17746400</v>
+        <v>18057500</v>
       </c>
       <c r="J66" s="3">
+        <v>17844500</v>
+      </c>
+      <c r="K66" s="3">
         <v>17973700</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2194,8 +2319,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2220,9 +2346,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2247,23 +2376,26 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D70" s="3">
-        <v>1808000</v>
+        <v>981700</v>
       </c>
       <c r="E70" s="3">
-        <v>1808000</v>
+        <v>1818000</v>
       </c>
       <c r="F70" s="3">
-        <v>2034000</v>
+        <v>1818000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>2045300</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2274,9 +2406,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2301,36 +2436,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1853300</v>
+        <v>2347700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1343300</v>
+        <v>1863600</v>
       </c>
       <c r="F72" s="3">
-        <v>-3147200</v>
+        <v>-1350700</v>
       </c>
       <c r="G72" s="3">
-        <v>-790500</v>
+        <v>-3164600</v>
       </c>
       <c r="H72" s="3">
-        <v>1221300</v>
+        <v>-794900</v>
       </c>
       <c r="I72" s="3">
-        <v>-2629800</v>
+        <v>1228000</v>
       </c>
       <c r="J72" s="3">
+        <v>-2644400</v>
+      </c>
+      <c r="K72" s="3">
         <v>4699700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2355,9 +2496,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2382,9 +2526,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2409,36 +2556,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>1613200</v>
+        <v>2207700</v>
       </c>
       <c r="E76" s="3">
-        <v>851200</v>
+        <v>1622100</v>
       </c>
       <c r="F76" s="3">
-        <v>-2423200</v>
+        <v>855900</v>
       </c>
       <c r="G76" s="3">
-        <v>272700</v>
+        <v>-2436600</v>
       </c>
       <c r="H76" s="3">
-        <v>1764200</v>
+        <v>274200</v>
       </c>
       <c r="I76" s="3">
-        <v>1127000</v>
+        <v>1774000</v>
       </c>
       <c r="J76" s="3">
+        <v>1133300</v>
+      </c>
+      <c r="K76" s="3">
         <v>5658100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2463,68 +2616,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>585800</v>
+        <v>648600</v>
       </c>
       <c r="E81" s="3">
-        <v>-273300</v>
+        <v>589000</v>
       </c>
       <c r="F81" s="3">
-        <v>-2363500</v>
+        <v>-274800</v>
       </c>
       <c r="G81" s="3">
-        <v>-2010000</v>
+        <v>-2376600</v>
       </c>
       <c r="H81" s="3">
-        <v>104500</v>
+        <v>-2021100</v>
       </c>
       <c r="I81" s="3">
-        <v>-4929900</v>
+        <v>105100</v>
       </c>
       <c r="J81" s="3">
+        <v>-4957200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3399700</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2536,35 +2698,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>688100</v>
+        <v>716700</v>
       </c>
       <c r="E83" s="3">
-        <v>616800</v>
+        <v>691900</v>
       </c>
       <c r="F83" s="3">
-        <v>693600</v>
+        <v>620300</v>
       </c>
       <c r="G83" s="3">
-        <v>988300</v>
+        <v>697400</v>
       </c>
       <c r="H83" s="3">
-        <v>1118900</v>
+        <v>993800</v>
       </c>
       <c r="I83" s="3">
-        <v>1607000</v>
+        <v>1125100</v>
       </c>
       <c r="J83" s="3">
+        <v>1615900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2245800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2589,9 +2755,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2616,9 +2785,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2643,9 +2815,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2670,9 +2845,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2697,36 +2875,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>947500</v>
+        <v>731000</v>
       </c>
       <c r="E89" s="3">
-        <v>1146900</v>
+        <v>952700</v>
       </c>
       <c r="F89" s="3">
-        <v>-170500</v>
+        <v>1153200</v>
       </c>
       <c r="G89" s="3">
-        <v>156700</v>
+        <v>-171500</v>
       </c>
       <c r="H89" s="3">
-        <v>1798800</v>
+        <v>157600</v>
       </c>
       <c r="I89" s="3">
-        <v>-732900</v>
+        <v>1808800</v>
       </c>
       <c r="J89" s="3">
+        <v>-736900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1295500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2738,35 +2922,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-922600</v>
+        <v>-1147700</v>
       </c>
       <c r="E91" s="3">
-        <v>-699700</v>
+        <v>-927800</v>
       </c>
       <c r="F91" s="3">
-        <v>-419100</v>
+        <v>-703500</v>
       </c>
       <c r="G91" s="3">
-        <v>-449400</v>
+        <v>-421400</v>
       </c>
       <c r="H91" s="3">
-        <v>-413200</v>
+        <v>-451900</v>
       </c>
       <c r="I91" s="3">
-        <v>-555600</v>
+        <v>-415500</v>
       </c>
       <c r="J91" s="3">
+        <v>-558700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1068200</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2791,9 +2979,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2818,36 +3009,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1139100</v>
+        <v>-1523400</v>
       </c>
       <c r="E94" s="3">
-        <v>-819700</v>
+        <v>-1145400</v>
       </c>
       <c r="F94" s="3">
-        <v>-366200</v>
+        <v>-824300</v>
       </c>
       <c r="G94" s="3">
-        <v>-145000</v>
+        <v>-368300</v>
       </c>
       <c r="H94" s="3">
-        <v>-767900</v>
+        <v>-145800</v>
       </c>
       <c r="I94" s="3">
-        <v>64300</v>
+        <v>-772100</v>
       </c>
       <c r="J94" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1442400</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2859,13 +3056,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-191600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2877,17 +3075,20 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-300</v>
       </c>
-      <c r="I96" s="3">
-        <v>-49700</v>
-      </c>
       <c r="J96" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-119700</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2912,9 +3113,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2939,9 +3143,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2966,88 +3173,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-263400</v>
+        <v>-804600</v>
       </c>
       <c r="E100" s="3">
-        <v>2460700</v>
+        <v>-264800</v>
       </c>
       <c r="F100" s="3">
-        <v>-138900</v>
+        <v>2474300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1230300</v>
+        <v>-139600</v>
       </c>
       <c r="H100" s="3">
-        <v>296100</v>
+        <v>-1237100</v>
       </c>
       <c r="I100" s="3">
-        <v>466800</v>
+        <v>297700</v>
       </c>
       <c r="J100" s="3">
+        <v>469400</v>
+      </c>
+      <c r="K100" s="3">
         <v>2317700</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E101" s="3">
         <v>7700</v>
       </c>
-      <c r="E101" s="3">
-        <v>-40200</v>
-      </c>
       <c r="F101" s="3">
-        <v>-71800</v>
+        <v>-40400</v>
       </c>
       <c r="G101" s="3">
-        <v>148000</v>
+        <v>-72200</v>
       </c>
       <c r="H101" s="3">
-        <v>144400</v>
+        <v>148800</v>
       </c>
       <c r="I101" s="3">
-        <v>148400</v>
+        <v>145200</v>
       </c>
       <c r="J101" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9800</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-447300</v>
+        <v>-1592600</v>
       </c>
       <c r="E102" s="3">
-        <v>2747700</v>
+        <v>-449700</v>
       </c>
       <c r="F102" s="3">
-        <v>-747400</v>
+        <v>2762900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1070500</v>
+        <v>-751500</v>
       </c>
       <c r="H102" s="3">
-        <v>1471400</v>
+        <v>-1076500</v>
       </c>
       <c r="I102" s="3">
-        <v>-53400</v>
+        <v>1479600</v>
       </c>
       <c r="J102" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-429900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
